--- a/output/StructureDefinition-t-cabs-devicemetric-eingestellter-gemessener-parameter.xlsx
+++ b/output/StructureDefinition-t-cabs-devicemetric-eingestellter-gemessener-parameter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-19T16:19:18+01:00</t>
+    <t>2025-03-25T16:42:03+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-t-cabs-devicemetric-eingestellter-gemessener-parameter.xlsx
+++ b/output/StructureDefinition-t-cabs-devicemetric-eingestellter-gemessener-parameter.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="262">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-25T16:42:03+01:00</t>
+    <t>2025-04-02T15:35:32+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -257,7 +257,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>DeviceMetric.id</t>
@@ -301,10 +301,6 @@
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
@@ -422,6 +418,92 @@
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>DeviceMetric.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>DeviceMetric.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Instance identifier</t>
+  </si>
+  <si>
+    <t>Unique instance identifiers assigned to a device by the device or gateway software, manufacturers, other organizations or owners. For example: handle ID.</t>
+  </si>
+  <si>
+    <t>For identifiers assigned to a device by the device or gateway software, the `system` element of the identifier should be set to the unique identifier of the device.</t>
+  </si>
+  <si>
+    <t>DeviceMetric.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Identity of metric, for example Heart Rate or PEEP Setting</t>
+  </si>
+  <si>
+    <t>Describes the type of the metric. For example: Heart Rate, PEEP Setting, etc.</t>
+  </si>
+  <si>
+    <t>DeviceMetric.type can be referred to either IEEE 11073-10101 or LOINC.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Describes the metric type.</t>
+  </si>
+  <si>
+    <t>https://www.medizininformatik-initiative.de/fhir/ext/modul-icu/ValueSet/vs-mii-icu-category-procedure-beatmung-snomed</t>
+  </si>
+  <si>
+    <t>DeviceMetric.type.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>DeviceMetric.type.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
     <t xml:space="preserve">value:url}
 </t>
   </si>
@@ -430,92 +512,6 @@
   </si>
   <si>
     <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>DeviceMetric.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>DeviceMetric.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Instance identifier</t>
-  </si>
-  <si>
-    <t>Unique instance identifiers assigned to a device by the device or gateway software, manufacturers, other organizations or owners. For example: handle ID.</t>
-  </si>
-  <si>
-    <t>For identifiers assigned to a device by the device or gateway software, the `system` element of the identifier should be set to the unique identifier of the device.</t>
-  </si>
-  <si>
-    <t>DeviceMetric.type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Identity of metric, for example Heart Rate or PEEP Setting</t>
-  </si>
-  <si>
-    <t>Describes the type of the metric. For example: Heart Rate, PEEP Setting, etc.</t>
-  </si>
-  <si>
-    <t>DeviceMetric.type can be referred to either IEEE 11073-10101 or LOINC.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Describes the metric type.</t>
-  </si>
-  <si>
-    <t>https://www.medizininformatik-initiative.de/fhir/ext/modul-icu/ValueSet/vs-mii-icu-category-procedure-beatmung-snomed</t>
-  </si>
-  <si>
-    <t>DeviceMetric.type.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>DeviceMetric.type.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -596,9 +592,6 @@
     <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
   </si>
   <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
-  </si>
-  <si>
     <t>Need to refer to a particular code in the system.</t>
   </si>
   <si>
@@ -681,21 +674,14 @@
     <t>DeviceMetric.source</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://t-cabs.org/StructureDefinition/t-cabs-device-beatmungsgeraet) {https://www.medizininformatik-initiative.de/fhir/core/StructureDefinition/MII-Reference}
+    <t xml:space="preserve">Reference(http://t-cabs.org/StructureDefinition/t-cabs-device-beatmungsgeraet)
 </t>
   </si>
   <si>
-    <t>A reference from one resource to another</t>
-  </si>
-  <si>
-    <t>A reference from one resource to another.</t>
-  </si>
-  <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}mii-reference-1:Either reference.reference OR reference.identifier exists {($this.reference.exists() or ($this.identifier.value.exists() and $this.identifier.system.exists())) xor $this.extension('http://hl7.org/fhir/StructureDefinition/data-absent-reason').exists()}</t>
+    <t>Describes the link to the source Device</t>
+  </si>
+  <si>
+    <t>Describes the link to the  Device that this DeviceMetric belongs to and that contains administrative device information such as manufacturer, serial number, etc.</t>
   </si>
   <si>
     <t>DeviceMetric.parent</t>
@@ -711,10 +697,6 @@
     <t>Describes the link to the  Device that this DeviceMetric belongs to and that provide information about the location of this DeviceMetric in the containment structure of the parent Device. An example would be a Device that represents a Channel. This reference can be used by a client application to distinguish DeviceMetrics that have the same type, but should be interpreted based on their containment location.</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
-  </si>
-  <si>
     <t>DeviceMetric.operationalStatus</t>
   </si>
   <si>
@@ -773,10 +755,6 @@
     <t>Describes the measurement repetition time. This is not necessarily the same as the update period. The measurement repetition time can range from milliseconds up to hours. An example for a measurement repetition time in the range of milliseconds is the sampling rate of an ECG. An example for a measurement repetition time in the range of hours is a NIBP that is triggered automatically every hour. The update period may be different than the measurement repetition time, if the device does not update the published observed value with the same frequency as it was measured.</t>
   </si>
   <si>
-    <t>Describes the occurrence of an event that may occur multiple times. Timing schedules are used for specifying when events are expected or requested to occur, and may also be used to represent the summary of a past or ongoing event.  For simplicity, the definitions of Timing components are expressed as 'future' events, but such components can also be used to describe historic or ongoing events.
-A Timing schedule can be a list of events and/or criteria for when the event happens, which can be expressed in a structured form and/or as a code. When both event and a repeating specification are provided, the list of events should be understood as an interpretation of the information in the repeat structure.</t>
-  </si>
-  <si>
     <t>DeviceMetric.calibration</t>
   </si>
   <si>
@@ -854,9 +832,6 @@
   </si>
   <si>
     <t>Describes the time last calibration has been performed.</t>
-  </si>
-  <si>
-    <t>Note: This is intended for where precisely observed times are required, typically system logs etc., and not human-reported times - for them, see date and dateTime (which can be as precise as instant, but is not required to be) below. Time zone is always required</t>
   </si>
 </sst>
 </file>
@@ -1195,7 +1170,7 @@
     <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="155.93359375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="74.39453125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1630,18 +1605,18 @@
         <v>81</v>
       </c>
       <c r="AI4" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AJ4" t="s" s="2">
-        <v>94</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1664,16 +1639,16 @@
         <v>82</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1723,7 +1698,7 @@
         <v>20</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>73</v>
@@ -1732,18 +1707,18 @@
         <v>81</v>
       </c>
       <c r="AI5" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AJ5" t="s" s="2">
-        <v>94</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1766,16 +1741,16 @@
         <v>20</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -1801,32 +1776,32 @@
         <v>20</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="Y6" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="Z6" t="s" s="2">
+      <c r="AA6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="AA6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>109</v>
-      </c>
       <c r="AG6" t="s" s="2">
         <v>73</v>
       </c>
@@ -1834,22 +1809,22 @@
         <v>81</v>
       </c>
       <c r="AI6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AJ6" t="s" s="2">
-        <v>94</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -1868,16 +1843,16 @@
         <v>20</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -1927,7 +1902,7 @@
         <v>20</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>73</v>
@@ -1936,22 +1911,22 @@
         <v>81</v>
       </c>
       <c r="AI7" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>94</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -1970,16 +1945,16 @@
         <v>20</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2029,7 +2004,7 @@
         <v>20</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>73</v>
@@ -2046,14 +2021,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2072,16 +2047,16 @@
         <v>20</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="M9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2119,19 +2094,19 @@
         <v>20</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="AD9" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>73</v>
@@ -2140,22 +2115,22 @@
         <v>74</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2174,19 +2149,19 @@
         <v>20</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>20</v>
@@ -2223,19 +2198,19 @@
         <v>20</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="AD10" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>73</v>
@@ -2244,18 +2219,18 @@
         <v>74</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2278,16 +2253,16 @@
         <v>82</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2337,7 +2312,7 @@
         <v>20</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>73</v>
@@ -2346,18 +2321,18 @@
         <v>74</v>
       </c>
       <c r="AI11" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AJ11" t="s" s="2">
-        <v>94</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2380,16 +2355,16 @@
         <v>82</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2415,13 +2390,13 @@
         <v>20</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>20</v>
@@ -2439,7 +2414,7 @@
         <v>20</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>81</v>
@@ -2448,18 +2423,18 @@
         <v>81</v>
       </c>
       <c r="AI12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>94</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2482,13 +2457,13 @@
         <v>20</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2539,7 +2514,7 @@
         <v>20</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>73</v>
@@ -2556,14 +2531,14 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -2582,16 +2557,16 @@
         <v>20</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="L14" t="s" s="2">
-        <v>127</v>
-      </c>
       <c r="M14" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2629,19 +2604,19 @@
         <v>20</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>73</v>
@@ -2650,18 +2625,18 @@
         <v>74</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2684,19 +2659,19 @@
         <v>82</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="N15" t="s" s="2">
+      <c r="O15" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>20</v>
@@ -2706,46 +2681,46 @@
         <v>20</v>
       </c>
       <c r="S15" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="T15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF15" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="T15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>73</v>
@@ -2754,18 +2729,18 @@
         <v>74</v>
       </c>
       <c r="AI15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>94</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2788,13 +2763,13 @@
         <v>20</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2845,7 +2820,7 @@
         <v>20</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>73</v>
@@ -2862,14 +2837,14 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -2888,16 +2863,16 @@
         <v>20</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="L17" t="s" s="2">
-        <v>127</v>
-      </c>
       <c r="M17" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -2935,19 +2910,19 @@
         <v>20</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>73</v>
@@ -2956,18 +2931,18 @@
         <v>74</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2990,19 +2965,19 @@
         <v>82</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="N18" t="s" s="2">
+      <c r="O18" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>20</v>
@@ -3051,7 +3026,7 @@
         <v>20</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>73</v>
@@ -3060,18 +3035,18 @@
         <v>81</v>
       </c>
       <c r="AI18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>94</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3094,16 +3069,16 @@
         <v>82</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3153,7 +3128,7 @@
         <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>73</v>
@@ -3162,18 +3137,18 @@
         <v>81</v>
       </c>
       <c r="AI19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>94</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3196,19 +3171,17 @@
         <v>82</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" s="2"/>
+      <c r="O20" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>20</v>
@@ -3257,7 +3230,7 @@
         <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>73</v>
@@ -3266,18 +3239,18 @@
         <v>81</v>
       </c>
       <c r="AI20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>94</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3300,19 +3273,17 @@
         <v>82</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>20</v>
@@ -3361,7 +3332,7 @@
         <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>73</v>
@@ -3370,18 +3341,18 @@
         <v>81</v>
       </c>
       <c r="AI21" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>94</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3404,19 +3375,19 @@
         <v>82</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>20</v>
@@ -3465,7 +3436,7 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>73</v>
@@ -3474,18 +3445,18 @@
         <v>81</v>
       </c>
       <c r="AI22" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>94</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3508,19 +3479,19 @@
         <v>82</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="N23" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="O23" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>20</v>
@@ -3569,7 +3540,7 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>73</v>
@@ -3578,18 +3549,18 @@
         <v>81</v>
       </c>
       <c r="AI23" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>94</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3612,16 +3583,16 @@
         <v>82</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="N24" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -3647,13 +3618,13 @@
         <v>20</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>20</v>
@@ -3671,7 +3642,7 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>73</v>
@@ -3680,18 +3651,18 @@
         <v>81</v>
       </c>
       <c r="AI24" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>94</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3714,17 +3685,15 @@
         <v>82</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="L25" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>216</v>
-      </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>20</v>
@@ -3773,7 +3742,7 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>73</v>
@@ -3782,18 +3751,18 @@
         <v>81</v>
       </c>
       <c r="AI25" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>217</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3816,17 +3785,15 @@
         <v>82</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>216</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>20</v>
@@ -3875,7 +3842,7 @@
         <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>73</v>
@@ -3884,18 +3851,18 @@
         <v>81</v>
       </c>
       <c r="AI26" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>222</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -3918,17 +3885,15 @@
         <v>82</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>185</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>20</v>
@@ -3953,13 +3918,13 @@
         <v>20</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>20</v>
@@ -3977,7 +3942,7 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>73</v>
@@ -3986,18 +3951,18 @@
         <v>81</v>
       </c>
       <c r="AI27" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>94</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4020,17 +3985,15 @@
         <v>82</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>185</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>20</v>
@@ -4055,13 +4018,13 @@
         <v>20</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>20</v>
@@ -4079,7 +4042,7 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>73</v>
@@ -4088,18 +4051,18 @@
         <v>81</v>
       </c>
       <c r="AI28" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>94</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4122,17 +4085,15 @@
         <v>82</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>185</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>20</v>
@@ -4157,13 +4118,13 @@
         <v>20</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>20</v>
@@ -4181,7 +4142,7 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>81</v>
@@ -4190,18 +4151,18 @@
         <v>81</v>
       </c>
       <c r="AI29" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>94</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4224,17 +4185,15 @@
         <v>82</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>242</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>20</v>
@@ -4283,7 +4242,7 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>73</v>
@@ -4292,18 +4251,18 @@
         <v>81</v>
       </c>
       <c r="AI30" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>94</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4326,13 +4285,13 @@
         <v>82</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4383,7 +4342,7 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>73</v>
@@ -4392,18 +4351,18 @@
         <v>74</v>
       </c>
       <c r="AI31" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>94</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4426,13 +4385,13 @@
         <v>20</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4483,7 +4442,7 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>73</v>
@@ -4500,14 +4459,14 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -4526,16 +4485,16 @@
         <v>20</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="L33" t="s" s="2">
-        <v>127</v>
-      </c>
       <c r="M33" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -4573,19 +4532,19 @@
         <v>20</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>73</v>
@@ -4594,22 +4553,22 @@
         <v>74</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -4628,19 +4587,19 @@
         <v>82</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>20</v>
@@ -4689,7 +4648,7 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>73</v>
@@ -4698,18 +4657,18 @@
         <v>74</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -4732,17 +4691,15 @@
         <v>82</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>185</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>20</v>
@@ -4767,13 +4724,13 @@
         <v>20</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>20</v>
@@ -4791,7 +4748,7 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>73</v>
@@ -4800,18 +4757,18 @@
         <v>81</v>
       </c>
       <c r="AI35" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>94</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -4834,17 +4791,15 @@
         <v>82</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>185</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>20</v>
@@ -4869,13 +4824,13 @@
         <v>20</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>20</v>
@@ -4893,7 +4848,7 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>73</v>
@@ -4902,18 +4857,18 @@
         <v>81</v>
       </c>
       <c r="AI36" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>94</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -4936,17 +4891,15 @@
         <v>82</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>268</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>20</v>
@@ -4995,7 +4948,7 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>73</v>
@@ -5004,10 +4957,10 @@
         <v>81</v>
       </c>
       <c r="AI37" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/output/StructureDefinition-t-cabs-devicemetric-eingestellter-gemessener-parameter.xlsx
+++ b/output/StructureDefinition-t-cabs-devicemetric-eingestellter-gemessener-parameter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-02T15:35:32+02:00</t>
+    <t>2025-04-11T09:40:45+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
